--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Il17re</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +525,1549 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.63706194481708</v>
+        <v>0.3020803333333333</v>
       </c>
       <c r="H2">
-        <v>1.63706194481708</v>
+        <v>0.9062410000000001</v>
       </c>
       <c r="I2">
-        <v>0.8655254613063197</v>
+        <v>0.09157222970918596</v>
       </c>
       <c r="J2">
-        <v>0.8655254613063197</v>
+        <v>0.09157222970918595</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0371550950912041</v>
+        <v>0.08759</v>
       </c>
       <c r="N2">
-        <v>0.0371550950912041</v>
+        <v>0.26277</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3835397697914812</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3835397697914812</v>
       </c>
       <c r="Q2">
-        <v>0.06082519222987012</v>
+        <v>0.02645921639666667</v>
       </c>
       <c r="R2">
-        <v>0.06082519222987012</v>
+        <v>0.23813294757</v>
       </c>
       <c r="S2">
-        <v>0.8655254613063197</v>
+        <v>0.03512159190195382</v>
       </c>
       <c r="T2">
-        <v>0.8655254613063197</v>
+        <v>0.03512159190195381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.3020803333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.9062410000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.09157222970918596</v>
+      </c>
+      <c r="J3">
+        <v>0.09157222970918595</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.1206223333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.361867</v>
+      </c>
+      <c r="O3">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="P3">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="Q3">
+        <v>0.03643763466077778</v>
+      </c>
+      <c r="R3">
+        <v>0.327938711947</v>
+      </c>
+      <c r="S3">
+        <v>0.04836680403693087</v>
+      </c>
+      <c r="T3">
+        <v>0.04836680403693085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.3020803333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.9062410000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.09157222970918596</v>
+      </c>
+      <c r="J4">
+        <v>0.09157222970918595</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.0007876666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.002363</v>
+      </c>
+      <c r="O4">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="P4">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="Q4">
+        <v>0.0002379386092222222</v>
+      </c>
+      <c r="R4">
+        <v>0.002141447483</v>
+      </c>
+      <c r="S4">
+        <v>0.0003158363651266007</v>
+      </c>
+      <c r="T4">
+        <v>0.0003158363651266007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3020803333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.9062410000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.09157222970918596</v>
+      </c>
+      <c r="J5">
+        <v>0.09157222970918595</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.0003153333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.000946</v>
+      </c>
+      <c r="O5">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="P5">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="Q5">
+        <v>9.525599844444444E-05</v>
+      </c>
+      <c r="R5">
+        <v>0.0008573039860000001</v>
+      </c>
+      <c r="S5">
+        <v>0.0001264414733007889</v>
+      </c>
+      <c r="T5">
+        <v>0.0001264414733007889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.254346243621763</v>
-      </c>
-      <c r="H3">
-        <v>0.254346243621763</v>
-      </c>
-      <c r="I3">
-        <v>0.1344745386936803</v>
-      </c>
-      <c r="J3">
-        <v>0.1344745386936803</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.0371550950912041</v>
-      </c>
-      <c r="N3">
-        <v>0.0371550950912041</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.009450258867857168</v>
-      </c>
-      <c r="R3">
-        <v>0.009450258867857168</v>
-      </c>
-      <c r="S3">
-        <v>0.1344745386936803</v>
-      </c>
-      <c r="T3">
-        <v>0.1344745386936803</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3020803333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.9062410000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.09157222970918596</v>
+      </c>
+      <c r="J6">
+        <v>0.09157222970918595</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.01905733333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.057172</v>
+      </c>
+      <c r="O6">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="P6">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="Q6">
+        <v>0.005756845605777778</v>
+      </c>
+      <c r="R6">
+        <v>0.05181161045200001</v>
+      </c>
+      <c r="S6">
+        <v>0.007641555931873895</v>
+      </c>
+      <c r="T6">
+        <v>0.007641555931873894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4207993333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.262398</v>
+      </c>
+      <c r="I7">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="J7">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.08759</v>
+      </c>
+      <c r="N7">
+        <v>0.26277</v>
+      </c>
+      <c r="O7">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="P7">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="Q7">
+        <v>0.03685781360666666</v>
+      </c>
+      <c r="R7">
+        <v>0.33172032246</v>
+      </c>
+      <c r="S7">
+        <v>0.04892454366315659</v>
+      </c>
+      <c r="T7">
+        <v>0.04892454366315657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4207993333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.262398</v>
+      </c>
+      <c r="I8">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="J8">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1206223333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.361867</v>
+      </c>
+      <c r="O8">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="P8">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="Q8">
+        <v>0.05075779745177778</v>
+      </c>
+      <c r="R8">
+        <v>0.456820177066</v>
+      </c>
+      <c r="S8">
+        <v>0.0673751868240495</v>
+      </c>
+      <c r="T8">
+        <v>0.06737518682404947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4207993333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.262398</v>
+      </c>
+      <c r="I9">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="J9">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.0007876666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.002363</v>
+      </c>
+      <c r="O9">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="P9">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="Q9">
+        <v>0.0003314496082222222</v>
+      </c>
+      <c r="R9">
+        <v>0.002983046474</v>
+      </c>
+      <c r="S9">
+        <v>0.0004399615506946723</v>
+      </c>
+      <c r="T9">
+        <v>0.0004399615506946721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4207993333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.262398</v>
+      </c>
+      <c r="I10">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="J10">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.0003153333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.000946</v>
+      </c>
+      <c r="O10">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="P10">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="Q10">
+        <v>0.0001326920564444444</v>
+      </c>
+      <c r="R10">
+        <v>0.001194228508</v>
+      </c>
+      <c r="S10">
+        <v>0.0001761335704431485</v>
+      </c>
+      <c r="T10">
+        <v>0.0001761335704431484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4207993333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.262398</v>
+      </c>
+      <c r="I11">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="J11">
+        <v>0.1275605491700518</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01905733333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.057172</v>
+      </c>
+      <c r="O11">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="P11">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="Q11">
+        <v>0.008019313161777777</v>
+      </c>
+      <c r="R11">
+        <v>0.072173818456</v>
+      </c>
+      <c r="S11">
+        <v>0.01064472356170791</v>
+      </c>
+      <c r="T11">
+        <v>0.01064472356170791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.623297</v>
+      </c>
+      <c r="H12">
+        <v>1.869891</v>
+      </c>
+      <c r="I12">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="J12">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.08759</v>
+      </c>
+      <c r="N12">
+        <v>0.26277</v>
+      </c>
+      <c r="O12">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="P12">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="Q12">
+        <v>0.05459458423</v>
+      </c>
+      <c r="R12">
+        <v>0.49135125807</v>
+      </c>
+      <c r="S12">
+        <v>0.07246808365891227</v>
+      </c>
+      <c r="T12">
+        <v>0.07246808365891226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.623297</v>
+      </c>
+      <c r="H13">
+        <v>1.869891</v>
+      </c>
+      <c r="I13">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="J13">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1206223333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.361867</v>
+      </c>
+      <c r="O13">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="P13">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="Q13">
+        <v>0.07518353849966666</v>
+      </c>
+      <c r="R13">
+        <v>0.6766518464969999</v>
+      </c>
+      <c r="S13">
+        <v>0.09979757213304262</v>
+      </c>
+      <c r="T13">
+        <v>0.09979757213304259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.623297</v>
+      </c>
+      <c r="H14">
+        <v>1.869891</v>
+      </c>
+      <c r="I14">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="J14">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.0007876666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.002363</v>
+      </c>
+      <c r="O14">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="P14">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="Q14">
+        <v>0.0004909502703333333</v>
+      </c>
+      <c r="R14">
+        <v>0.004418552433000001</v>
+      </c>
+      <c r="S14">
+        <v>0.0006516804874453314</v>
+      </c>
+      <c r="T14">
+        <v>0.0006516804874453311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.623297</v>
+      </c>
+      <c r="H15">
+        <v>1.869891</v>
+      </c>
+      <c r="I15">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="J15">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.0003153333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.000946</v>
+      </c>
+      <c r="O15">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="P15">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="Q15">
+        <v>0.0001965463206666667</v>
+      </c>
+      <c r="R15">
+        <v>0.001768916886</v>
+      </c>
+      <c r="S15">
+        <v>0.0002608928231583933</v>
+      </c>
+      <c r="T15">
+        <v>0.0002608928231583933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.623297</v>
+      </c>
+      <c r="H16">
+        <v>1.869891</v>
+      </c>
+      <c r="I16">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="J16">
+        <v>0.1889454220048965</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.01905733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.057172</v>
+      </c>
+      <c r="O16">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="P16">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="Q16">
+        <v>0.01187837869466667</v>
+      </c>
+      <c r="R16">
+        <v>0.106905408252</v>
+      </c>
+      <c r="S16">
+        <v>0.01576719290233791</v>
+      </c>
+      <c r="T16">
+        <v>0.01576719290233791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.642757</v>
+      </c>
+      <c r="H17">
+        <v>4.928271</v>
+      </c>
+      <c r="I17">
+        <v>0.4979831679223513</v>
+      </c>
+      <c r="J17">
+        <v>0.4979831679223512</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.08759</v>
+      </c>
+      <c r="N17">
+        <v>0.26277</v>
+      </c>
+      <c r="O17">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="P17">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="Q17">
+        <v>0.14388908563</v>
+      </c>
+      <c r="R17">
+        <v>1.29500177067</v>
+      </c>
+      <c r="S17">
+        <v>0.1909963495849711</v>
+      </c>
+      <c r="T17">
+        <v>0.1909963495849711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.642757</v>
+      </c>
+      <c r="H18">
+        <v>4.928271</v>
+      </c>
+      <c r="I18">
+        <v>0.4979831679223513</v>
+      </c>
+      <c r="J18">
+        <v>0.4979831679223512</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1206223333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.361867</v>
+      </c>
+      <c r="O18">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="P18">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="Q18">
+        <v>0.1981531824396666</v>
+      </c>
+      <c r="R18">
+        <v>1.783378641957</v>
+      </c>
+      <c r="S18">
+        <v>0.2630257488878668</v>
+      </c>
+      <c r="T18">
+        <v>0.2630257488878667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.642757</v>
+      </c>
+      <c r="H19">
+        <v>4.928271</v>
+      </c>
+      <c r="I19">
+        <v>0.4979831679223513</v>
+      </c>
+      <c r="J19">
+        <v>0.4979831679223512</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.0007876666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.002363</v>
+      </c>
+      <c r="O19">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="P19">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="Q19">
+        <v>0.001293944930333333</v>
+      </c>
+      <c r="R19">
+        <v>0.011645504373</v>
+      </c>
+      <c r="S19">
+        <v>0.001717564311258084</v>
+      </c>
+      <c r="T19">
+        <v>0.001717564311258084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.642757</v>
+      </c>
+      <c r="H20">
+        <v>4.928271</v>
+      </c>
+      <c r="I20">
+        <v>0.4979831679223513</v>
+      </c>
+      <c r="J20">
+        <v>0.4979831679223512</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.0003153333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.000946</v>
+      </c>
+      <c r="O20">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="P20">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="Q20">
+        <v>0.0005180160406666666</v>
+      </c>
+      <c r="R20">
+        <v>0.004662144365999999</v>
+      </c>
+      <c r="S20">
+        <v>0.0006876072105163553</v>
+      </c>
+      <c r="T20">
+        <v>0.0006876072105163552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.642757</v>
+      </c>
+      <c r="H21">
+        <v>4.928271</v>
+      </c>
+      <c r="I21">
+        <v>0.4979831679223513</v>
+      </c>
+      <c r="J21">
+        <v>0.4979831679223512</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.01905733333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.057172</v>
+      </c>
+      <c r="O21">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="P21">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="Q21">
+        <v>0.03130656773466666</v>
+      </c>
+      <c r="R21">
+        <v>0.281759109612</v>
+      </c>
+      <c r="S21">
+        <v>0.04155589792773897</v>
+      </c>
+      <c r="T21">
+        <v>0.04155589792773896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3098866666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.9296599999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.09393863119351455</v>
+      </c>
+      <c r="J22">
+        <v>0.09393863119351452</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.08759</v>
+      </c>
+      <c r="N22">
+        <v>0.26277</v>
+      </c>
+      <c r="O22">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="P22">
+        <v>0.3835397697914812</v>
+      </c>
+      <c r="Q22">
+        <v>0.02714297313333333</v>
+      </c>
+      <c r="R22">
+        <v>0.2442867582</v>
+      </c>
+      <c r="S22">
+        <v>0.03602920098248742</v>
+      </c>
+      <c r="T22">
+        <v>0.03602920098248742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3098866666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.9296599999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.09393863119351455</v>
+      </c>
+      <c r="J23">
+        <v>0.09393863119351452</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1206223333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.361867</v>
+      </c>
+      <c r="O23">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="P23">
+        <v>0.5281820066032421</v>
+      </c>
+      <c r="Q23">
+        <v>0.03737925280222222</v>
+      </c>
+      <c r="R23">
+        <v>0.33641327522</v>
+      </c>
+      <c r="S23">
+        <v>0.04961669472135243</v>
+      </c>
+      <c r="T23">
+        <v>0.04961669472135241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3098866666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.9296599999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.09393863119351455</v>
+      </c>
+      <c r="J24">
+        <v>0.09393863119351452</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.0007876666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.002363</v>
+      </c>
+      <c r="O24">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="P24">
+        <v>0.00344904089514507</v>
+      </c>
+      <c r="Q24">
+        <v>0.0002440873977777778</v>
+      </c>
+      <c r="R24">
+        <v>0.00219678658</v>
+      </c>
+      <c r="S24">
+        <v>0.000323998180620382</v>
+      </c>
+      <c r="T24">
+        <v>0.0003239981806203819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3098866666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.9296599999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.09393863119351455</v>
+      </c>
+      <c r="J25">
+        <v>0.09393863119351452</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.0003153333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.000946</v>
+      </c>
+      <c r="O25">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="P25">
+        <v>0.001380784040121556</v>
+      </c>
+      <c r="Q25">
+        <v>9.771759555555554E-05</v>
+      </c>
+      <c r="R25">
+        <v>0.0008794583599999999</v>
+      </c>
+      <c r="S25">
+        <v>0.0001297089627028698</v>
+      </c>
+      <c r="T25">
+        <v>0.0001297089627028698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3098866666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.9296599999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.09393863119351455</v>
+      </c>
+      <c r="J26">
+        <v>0.09393863119351452</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.01905733333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.057172</v>
+      </c>
+      <c r="O26">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="P26">
+        <v>0.08344839867001012</v>
+      </c>
+      <c r="Q26">
+        <v>0.005905613502222222</v>
+      </c>
+      <c r="R26">
+        <v>0.05315052151999999</v>
+      </c>
+      <c r="S26">
+        <v>0.007839028346351451</v>
+      </c>
+      <c r="T26">
+        <v>0.007839028346351449</v>
       </c>
     </row>
   </sheetData>
